--- a/programacao_semcomp.xlsx
+++ b/programacao_semcomp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t xml:space="preserve">Tipo</t>
   </si>
@@ -37,36 +37,169 @@
     <t xml:space="preserve">Palestra</t>
   </si>
   <si>
-    <t xml:space="preserve">Nomeeee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/09</t>
+    <t xml:space="preserve">Abertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introdução à Computação Bioinspirada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introdução ao Aprendizado por Reforço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que realmente faz um Gerente de Produto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roda de Conversa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desabafo sobre expectativas e sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minicurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de bots para Discord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo dos Patrocinadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversidade &amp; Comunidade: construindo a tecnologia do futuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comida para tempos difíceis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conhecendo a arquitetura do Microsoft Powerapps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiros passos com Figma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Writing: desvendando a área que simplifica o complexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogo das 3 pistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roda de Conversa Empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feira de Oportunidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como empresas programam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cospobre</t>
   </si>
   <si>
     <t xml:space="preserve">20:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Minicurso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roda de Conversa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feira de Oportunidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concurso</t>
+    <t xml:space="preserve">Como equilibrar segurança e agilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitetura de Dados: Democratizando o conhecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewSpace: a nova economia espacial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aula de Alongamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visão Computacional e a Pesquisa no Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GameNight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamenight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desafio de Programação Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desafio de Programação Competitiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computação Gráfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introdução ao Desenvolvimento de Jogos e Game Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore a arquitetura de microserviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encerramento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -133,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,12 +279,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -171,13 +300,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -209,67 +338,409 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/programacao_semcomp.xlsx
+++ b/programacao_semcomp.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Concurso</t>
   </si>
   <si>
-    <t xml:space="preserve">Logo dos Patrocinadores</t>
+    <t xml:space="preserve">Quem Quer Ser um Marketeiro?</t>
   </si>
   <si>
     <t xml:space="preserve">21:45</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Technical Writing: desvendando a área que simplifica o complexo</t>
   </si>
   <si>
-    <t xml:space="preserve">Jogo das 3 pistas</t>
+    <t xml:space="preserve">Jogo dos 3 Plimplins</t>
   </si>
   <si>
     <t xml:space="preserve">19:15</t>
@@ -302,11 +302,14 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.91"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -393,7 +396,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -410,7 +413,7 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -421,7 +424,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -435,7 +438,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -452,7 +455,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -466,7 +469,7 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -494,7 +497,7 @@
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -550,7 +553,7 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -578,7 +581,7 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -645,10 +648,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -676,7 +679,7 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -687,10 +690,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -704,7 +707,7 @@
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -718,7 +721,7 @@
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -732,7 +735,7 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
